--- a/similarities/split_global/harmonic_similarity_timestamps_127.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_127.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,638 +484,690 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>['D', 'G:min', 'D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D/5', 'E/4', 'A']]</t>
+          <t>['B:maj/F#', 'E:min/G', 'B:maj/F#']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:19.616133', '0:00:25.815861')]</t>
+          <t>('0:02:04.737522', '0:02:11.471309')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:05.544000', '0:00:09.340000')]</t>
+          <t>('0:01:12.880000', '0:01:14.720000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-243#t=19.616133']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=124.737522</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=5.544']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=72.88</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['E:dim7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['G#:dim7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:17.160000')]</t>
+          <t>('0:00:18.700000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:17.480000', '0:00:19.720000')]</t>
+          <t>('0:01:14.420000', '0:01:18.760000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=18.7</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=74.42</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:36.940000', '0:01:43.280000'), ('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:32.260000', '0:01:39.020000'), ('0:02:04.300000', '0:02:09.240000')]</t>
+          <t>('0:00:03.101913', '0:00:07.754783')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=96.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=92.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:46.880000', '0:00:58.120000')]</t>
+          <t>('0:01:58.400000', '0:02:02.040000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:02', '0:00:05')]</t>
+          <t>('0:02:08.540000', '0:02:13.900000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=46.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_185</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'E:min', 'F#']]</t>
+          <t>['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:min/E', 'B:maj/D#']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:33.686916', '0:00:42.951678')]</t>
+          <t>('0:00:00.480000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:03.140000', '0:01:05.620000')]</t>
+          <t>('0:00:59.800000', '0:01:09.340000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-185#t=33.686916']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=63.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=59.8</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>isophonics_219</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A', 'D:min', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:46.960000', '0:00:50.740000'), ('0:01:12.680000', '0:01:18.700000')]</t>
+          <t>('0:00:08.900000', '0:00:13.160000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:37.640000', '0:01:51'), ('0:01:47.260000', '0:02:02.720000')]</t>
+          <t>('0:01:15.058526', '0:01:45.418616')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=72.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=8.9</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=97.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=107.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-219#t=75.058526</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:00:59.500000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:07.541609')]</t>
+          <t>('0:00:16.040000', '0:00:18.720000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:01:22.070000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+          <t>('0:00:49.610000', '0:00:59.750000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:00.465952', '0:00:05.272756')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A', 'A:7', 'D']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:04.871315', '0:01:12.777709')]</t>
+          <t>('0:00:41.060000', '0:00:42.840000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:06.950000', '0:00:14.410000')]</t>
+          <t>('0:00:48.001000', '0:00:54.307000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=64.871315']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=41.06</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=6.95']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>isophonics_101</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G#/C', 'D#:7/A#', 'G#/C']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Cb', 'Gb:7', 'Cb']]</t>
+          <t>['C#', 'F#/5', 'C#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:51.040000', '0:00:52.760000')]</t>
+          <t>('0:00:16.820000', '0:00:23.180000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:46.759000', '0:00:50.551000')]</t>
+          <t>('0:00:01.206300', '0:01:58.925813')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=51.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=46.759']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>jaah_52</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>jaah_86</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F:7', 'Bb'], ['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:7', 'Eb'], ['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:25.830000', '0:00:32.220000'), ('0:00:49.610000', '0:00:59.750000')]</t>
+          <t>('0:00:14.440000', '0:00:33.820000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:20.050000', '0:00:26.800000'), ('0:00:12.430000', '0:00:17.230000')]</t>
+          <t>('0:00:49.610000', '0:00:59.750000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=25.83', 'https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=14.44</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=20.05', 'https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G', 'C/5', 'G']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:59.182426', '0:01:08.064058')]</t>
+          <t>('0:00:16.560000', '0:00:45.260000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:58.440000', '0:02:02.340000')]</t>
+          <t>('0:01:12.500000', '0:01:33.840000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=16.56</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=72.5</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['F:maj', 'F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['A#', 'A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:43.260000', '0:00:45.660000')]</t>
+          <t>('0:00:18.480000', '0:00:21.420000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:10.953139', '0:00:19.672232')]</t>
+          <t>('0:04:29.700000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=18.48</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=269.7</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1124,54 +1176,58 @@
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D/5', 'A/3', 'D']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+          <t>('0:00:46.600000', '0:00:49.040000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:10.980000', '0:01:27.200000')]</t>
+          <t>('0:00:21.740249', '0:00:26.767369')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
